--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/202137.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/202137.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2905,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3165,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,25 +3298,25 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3419,31 +3419,31 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
@@ -3558,25 +3558,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" s="2" t="n">
         <v>1</v>
@@ -3600,16 +3600,16 @@
         <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>1</v>
@@ -3691,25 +3691,25 @@
         <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" s="2" t="n">
         <v>1</v>
@@ -3733,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="2" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="2" t="inlineStr">
         <is>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -3818,25 +3818,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -3860,16 +3860,16 @@
         <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
@@ -3927,16 +3927,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>1</v>
@@ -3951,31 +3951,31 @@
         <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2" t="n">
         <v>0</v>
@@ -3987,22 +3987,22 @@
         <v>1</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="2" t="n">
         <v>0</v>
@@ -4011,16 +4011,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="2" t="inlineStr">
         <is>
@@ -4048,25 +4048,25 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4078,31 +4078,31 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>1</v>
@@ -4211,31 +4211,31 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="2" t="n">
         <v>0</v>
@@ -4247,22 +4247,22 @@
         <v>1</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="2" t="n">
         <v>0</v>
@@ -4271,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="2" t="inlineStr">
         <is>
@@ -4308,25 +4308,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4338,31 +4338,31 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
         <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
       </c>
       <c r="AL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
@@ -4441,22 +4441,22 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>1</v>
@@ -4471,31 +4471,31 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2" t="n">
         <v>0</v>
@@ -4507,22 +4507,22 @@
         <v>1</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="2" t="n">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="2" t="inlineStr">
         <is>
@@ -4568,22 +4568,22 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -4592,37 +4592,37 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>1</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK32" t="n">
         <v>1</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
@@ -4701,22 +4701,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>1</v>
@@ -4731,31 +4731,31 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
         <v>0</v>
@@ -4767,22 +4767,22 @@
         <v>1</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="2" t="n">
         <v>0</v>
@@ -4791,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="2" t="inlineStr">
         <is>
@@ -4828,28 +4828,28 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -4858,31 +4858,31 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4894,40 +4894,40 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
         <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
@@ -4961,22 +4961,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -4988,37 +4988,37 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2" t="n">
         <v>0</v>
@@ -5027,22 +5027,22 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2" t="n">
         <v>0</v>
@@ -5051,16 +5051,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="2" t="inlineStr">
         <is>
@@ -5088,22 +5088,22 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -5115,37 +5115,37 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -5178,16 +5178,16 @@
         <v>1</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" t="n">
         <v>1</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -5221,22 +5221,22 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5251,34 +5251,34 @@
         <v>1</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="2" t="n">
         <v>0</v>
@@ -5293,16 +5293,16 @@
         <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="2" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="2" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -5378,34 +5378,34 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -5414,40 +5414,40 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB38" t="n">
         <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK38" t="n">
         <v>1</v>
       </c>
       <c r="AL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -5481,22 +5481,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,37 +5508,37 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5553,16 +5553,16 @@
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="2" t="n">
         <v>0</v>
@@ -5571,16 +5571,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="2" t="inlineStr">
         <is>
@@ -5608,22 +5608,22 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -5635,37 +5635,37 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5674,40 +5674,40 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB40" t="n">
         <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK40" t="n">
         <v>1</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -5741,22 +5741,22 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5768,37 +5768,37 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5813,16 +5813,16 @@
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="2" t="n">
         <v>0</v>
@@ -5834,13 +5834,13 @@
         <v>1</v>
       </c>
       <c r="AJ41" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="2" t="inlineStr">
         <is>
@@ -5868,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -5895,37 +5895,37 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -5940,13 +5940,13 @@
         <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
         <v>1</v>
@@ -5961,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AJ42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK42" t="n">
         <v>1</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
@@ -6001,22 +6001,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6028,37 +6028,37 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6073,16 +6073,16 @@
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2" t="n">
         <v>1</v>
@@ -6094,13 +6094,13 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="2" t="inlineStr">
         <is>
@@ -6122,70 +6122,70 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6200,13 +6200,13 @@
         <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
         <v>1</v>
@@ -6221,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK44" t="n">
         <v>1</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
@@ -6261,22 +6261,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6291,34 +6291,34 @@
         <v>2</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>0</v>
@@ -6327,22 +6327,22 @@
         <v>1</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="2" t="n">
         <v>1</v>
@@ -6354,13 +6354,13 @@
         <v>1</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="2" t="inlineStr">
         <is>
@@ -6394,22 +6394,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -6418,34 +6418,34 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -6454,22 +6454,22 @@
         <v>1</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB46" t="n">
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>1</v>
       </c>
       <c r="AF46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
         <v>1</v>
@@ -6481,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK46" t="n">
         <v>1</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
@@ -6521,22 +6521,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6551,34 +6551,34 @@
         <v>2</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2" t="n">
         <v>0</v>
@@ -6587,22 +6587,22 @@
         <v>1</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2" t="n">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>1</v>
@@ -6648,22 +6648,22 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -6678,34 +6678,34 @@
         <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -6714,34 +6714,34 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" t="n">
         <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>1</v>
       </c>
       <c r="AH48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
         <v>1</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK48" t="n">
         <v>1</v>
@@ -6787,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6811,34 +6811,34 @@
         <v>2</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="2" t="n">
         <v>0</v>
@@ -6847,22 +6847,22 @@
         <v>1</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2" t="n">
         <v>1</v>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="AJ49" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="2" t="n">
         <v>1</v>
@@ -6911,19 +6911,19 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6938,34 +6938,34 @@
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -6974,16 +6974,16 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB50" t="n">
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -6995,13 +6995,13 @@
         <v>1</v>
       </c>
       <c r="AH50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
         <v>1</v>
       </c>
       <c r="AJ50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK50" t="n">
         <v>1</v>
@@ -7047,16 +7047,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7071,34 +7071,34 @@
         <v>2</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2" t="n">
         <v>0</v>
@@ -7107,22 +7107,22 @@
         <v>1</v>
       </c>
       <c r="AA51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="2" t="n">
         <v>1</v>
@@ -7134,13 +7134,13 @@
         <v>1</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM51" s="2" t="inlineStr">
         <is>
@@ -7168,28 +7168,28 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -7198,34 +7198,34 @@
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
@@ -7234,22 +7234,22 @@
         <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB52" t="n">
         <v>1</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
         <v>1</v>
       </c>
       <c r="AF52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>1</v>
@@ -7261,13 +7261,13 @@
         <v>1</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK52" t="n">
         <v>1</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
@@ -7301,22 +7301,22 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7331,34 +7331,34 @@
         <v>2</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2" t="n">
         <v>0</v>
@@ -7367,22 +7367,22 @@
         <v>1</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="2" t="n">
         <v>1</v>
@@ -7394,13 +7394,13 @@
         <v>1</v>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM53" s="2" t="inlineStr">
         <is>
@@ -7428,22 +7428,22 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -7458,34 +7458,34 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -7494,22 +7494,22 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB54" t="n">
         <v>1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>1</v>
       </c>
       <c r="AF54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>1</v>
@@ -7521,13 +7521,13 @@
         <v>1</v>
       </c>
       <c r="AJ54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK54" t="n">
         <v>1</v>
       </c>
       <c r="AL54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
@@ -7561,106 +7561,106 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM55" s="2" t="inlineStr">
         <is>
@@ -7688,22 +7688,22 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -7718,34 +7718,34 @@
         <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -7754,22 +7754,22 @@
         <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB56" t="n">
         <v>1</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
         <v>1</v>
@@ -7781,13 +7781,13 @@
         <v>1</v>
       </c>
       <c r="AJ56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK56" t="n">
         <v>1</v>
       </c>
       <c r="AL56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
@@ -7821,106 +7821,106 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL57" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM57" s="2" t="inlineStr">
         <is>
@@ -7954,106 +7954,106 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL58" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL58" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM58" s="2" t="inlineStr">
         <is>
@@ -8087,106 +8087,106 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ59" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL59" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM59" s="2" t="inlineStr">
         <is>
